--- a/BalanceSheet/IEX_bal.xlsx
+++ b/BalanceSheet/IEX_bal.xlsx
@@ -504,19 +504,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-7539000.0</v>
+        <v>305000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>18603000.0</v>
+        <v>290000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>27449000.0</v>
+        <v>302000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>14188000.0</v>
+        <v>325000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-23717000.0</v>
+        <v>341000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>293467000.0</v>
@@ -1520,19 +1520,19 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>20042000.0</v>
+        <v>171000000.0</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>14198000.0</v>
+        <v>152000000.0</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>-4654000.0</v>
+        <v>135000000.0</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>-20988000.0</v>
+        <v>137000000.0</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>14146000.0</v>
+        <v>158000000.0</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>138463000.0</v>
@@ -2686,19 +2686,19 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>561000.0</v>
+        <v>173000000.0</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>6915000.0</v>
+        <v>161000000.0</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>-1098000.0</v>
+        <v>152000000.0</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>409000.0</v>
+        <v>150000000.0</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>2012000.0</v>
+        <v>148000000.0</v>
       </c>
       <c r="G20" s="0" t="n">
         <v>146574000.0</v>
@@ -4352,7 +4352,7 @@
         <v>527000000.0</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>302000000.0</v>
+        <v>216671000.0</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>333160000.0</v>
@@ -4479,7 +4479,7 @@
         <v>1096000000.0</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>935000000.0</v>
+        <v>849252000.0</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>849145000.0</v>
